--- a/log/log_201508030209_许先勇.xlsx
+++ b/log/log_201508030209_许先勇.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="4815"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <oleSize ref="A22:E25"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A33:D46"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
   <si>
     <t>日期</t>
   </si>
@@ -289,18 +289,152 @@
   <si>
     <t>1.学习了Spring，SpringMVC框架</t>
   </si>
+  <si>
+    <t>20:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始编写service的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始编写service的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连通了数据库，并出现跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始写controller，对页面跳转进行跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始写controller，对页面跳转进行跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对controller进行完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现跳转错误，并修改错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现跳转错误，并修改错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射错误，路径不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好了controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好了controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始写web层的模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始写web层的模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/619</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备期末考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备期末考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始写web层的jsp页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始写web层的jsp页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现命名的大小写要规范，路径要正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web基本写好，开始测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web基本写好，开始测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和小组其他成员一起看整体项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和小组其他成员一起看整体项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,345 +443,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -655,251 +465,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -914,61 +482,17 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1226,19 +750,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1247,7 +771,7 @@
     <col min="5" max="5" width="80.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:5">
+    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43216</v>
       </c>
@@ -1281,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="57" spans="1:5">
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43217</v>
       </c>
@@ -1298,7 +822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:5">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1313,7 +837,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="57" spans="1:5">
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:5">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43223</v>
       </c>
@@ -1347,7 +871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43224</v>
       </c>
@@ -1362,7 +886,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43225</v>
       </c>
@@ -1377,7 +901,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43226</v>
       </c>
@@ -1392,7 +916,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43227</v>
       </c>
@@ -1407,7 +931,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43228</v>
       </c>
@@ -1422,7 +946,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" ht="28.5" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43229</v>
       </c>
@@ -1437,7 +961,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" ht="28.5" spans="1:5">
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43230</v>
       </c>
@@ -1452,7 +976,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="28.5" spans="1:5">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43231</v>
       </c>
@@ -1467,7 +991,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" ht="42.75" spans="1:5">
+    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43232</v>
       </c>
@@ -1482,7 +1006,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" ht="28.5" spans="1:5">
+    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43233</v>
       </c>
@@ -1499,7 +1023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43234</v>
       </c>
@@ -1514,7 +1038,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43235</v>
       </c>
@@ -1529,7 +1053,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43236</v>
       </c>
@@ -1544,7 +1068,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43237</v>
       </c>
@@ -1559,7 +1083,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43238</v>
       </c>
@@ -1574,7 +1098,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>43239</v>
       </c>
@@ -1588,7 +1112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +1126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>43241</v>
       </c>
@@ -1616,7 +1140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1630,7 +1154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>43243</v>
       </c>
@@ -1644,7 +1168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1658,7 +1182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" ht="20" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1675,7 +1199,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="29" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1692,7 +1216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" ht="29" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1709,12 +1233,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>43248</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1726,12 +1250,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:4">
+    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>43249</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
         <v>70</v>
@@ -1740,47 +1264,208 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>43250</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>43252</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>43253</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>43255</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>43257</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>43260</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>43262</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>43263</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>43271</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>43273</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43275</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>43277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1794,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="78" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
@@ -1808,7 +1493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" ht="89.1" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1822,7 +1507,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" ht="96" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1834,7 +1519,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" ht="93" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1846,7 +1531,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" ht="48" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1858,63 +1543,63 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>